--- a/individual_results/avey/127.xlsx
+++ b/individual_results/avey/127.xlsx
@@ -594,7 +594,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="Q2" t="n">
         <v>0.6</v>
@@ -667,7 +667,7 @@
         <v>0.4</v>
       </c>
       <c r="P3" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="Q3" t="n">
         <v>0.6</v>
@@ -732,7 +732,7 @@
         <v>0.5714285714285715</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="Q4" t="n">
         <v>0.6</v>
@@ -797,7 +797,7 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="P5" t="n">
-        <v>0.6896551724137933</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="Q5" t="n">
         <v>0.6</v>
@@ -870,7 +870,7 @@
         <v>0.342461897512787</v>
       </c>
       <c r="P6" t="n">
-        <v>0.4089707248173179</v>
+        <v>0.3882359313010217</v>
       </c>
       <c r="Q6" t="n">
         <v>0.4191442612743468</v>
